--- a/需求文档/my需求文档.xlsx
+++ b/需求文档/my需求文档.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowWidth="13050" windowHeight="12200"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="格式说明" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="格式说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>界面划分</t>
   </si>
@@ -32,6 +43,18 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式说明</t>
+    </r>
   </si>
   <si>
     <t>主界面</t>
@@ -102,6 +125,13 @@
     <t>有暂停，快进，回退，倍速等功能</t>
   </si>
   <si>
+    <t>拥有合集功能，新建合集名,可以添加歌曲到合集
+可以选择播放,切换合集</t>
+  </si>
+  <si>
+    <t>可以选择改变播放顺序(随机，顺序)播放</t>
+  </si>
+  <si>
     <t>选择方向</t>
   </si>
   <si>
@@ -124,6 +154,9 @@
   </si>
   <si>
     <t>本地列表中所有的歌曲</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可以在最上方显示合集名</t>
   </si>
   <si>
     <t>可以选择直接播放或下一首播放</t>
@@ -143,162 +176,78 @@
     <t>回到主菜单</t>
   </si>
   <si>
-    <t>每个界面的内容划分通常是三块
-注意: 类似暂停, 菜单, 胜利/失败这种 只有展示内容和直接跳转的  不需要写功能描述部分</t>
-  </si>
-  <si>
-    <t>对功能划分的详细描述
-通常会根据优先级不同划分多行
-展示内容和直接跳转 可以合并列
-功能描述则需要根据功能名, 触发, 反馈来划分单元格</t>
-  </si>
-  <si>
-    <t>相同界面 不同优先级的功能 
-最好是划分不同行来描述</t>
-  </si>
-  <si>
-    <t>如何合并/拆分单元格
-excel的合并/拆分单元格快捷键:
-选中想要合并/拆分的单元格后
-按顺序按下: alt-&gt;h-&gt;m-&gt;c
-或者也可以直接点击开始页的合并选项</t>
-  </si>
-  <si>
-    <t>展示内容
-进入当前界面时 界面会展示哪些内容
-包括但不限于: 按钮, 数据, 游戏地图绘制等等</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-展示内容
-描述进入界面时 界面展示/绘制的内容 </t>
-  </si>
-  <si>
-    <t>核心功能
-必不可少的 程序的主体内容</t>
-  </si>
-  <si>
-    <t>直接跳转
-描述用户进行某个选择时 会直接进入对应界面</t>
-  </si>
-  <si>
-    <t>非核心功能
-没有不影响主体运行  但会显得程序不够合理 不够完善
-比如: 菜单, 游戏说明等等</t>
-  </si>
-  <si>
-    <t>功能描述
-除了直接跳转外 界面所提供的其他功能
-比如: 碰撞检测, 胜利判断, 排行榜翻页, 登录注册等等</t>
-  </si>
-  <si>
-    <t>功能描述-功能名
-功能的名称: 比如蛇定时移动, 玩家修改方向, 发射子弹, 投掷骰子等等</t>
-  </si>
-  <si>
-    <t>功能描述-触发
-什么情况下会触发这个功能:
-触发通常分为两种情况
-1. 玩家进行了某个操作, 比如按下某个键, 鼠标点击哪里等等
-2. 游戏定时的触发, 比如贪吃蛇的定时移动, 俄罗斯方块的定时下落, 飞机大战的敌机生成/移动等等</t>
-  </si>
-  <si>
-    <t>拓展功能
-程序的拓展功能 没有也不影响程序本身 但可以根据情况添加的功能
-比如: 不同的游戏模式, 设置, 音效音量 排行榜 道具等等</t>
-  </si>
-  <si>
-    <t>如何添加/删除行
-右键点击行号 选择插入/删除
-excel快捷键 点击行号 按ctrl+shift+'+'</t>
-  </si>
-  <si>
-    <t>通常会有多个功能 
-根据功能数量来建立多行</t>
-  </si>
-  <si>
-    <t>功能描述-触发</t>
-  </si>
-  <si>
-    <t>功能描述-反馈</t>
-  </si>
-  <si>
-    <t>拥有合集功能，可以添加歌曲到合集</t>
-  </si>
-  <si>
-    <t>拥有合集功能，可以添加歌曲到合集
-可以</t>
-  </si>
-  <si>
-    <t>拥有合集功能，可以添加歌曲到合集
-可以选择播放合集</t>
-  </si>
-  <si>
-    <t>拥有合集功能，新建合集名,可以添加歌曲到合集
-可以选择播放,切换合集</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 可以在最上方显示合集名</t>
-  </si>
-  <si>
-    <t>可以选择改变播放顺序</t>
-  </si>
-  <si>
-    <t>可以选择改变播放顺序(随机，顺序)播放</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <color theme="10"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>格式说明</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <color rgb="FF000000"/>
-        <sz val="10"/>
       </rPr>
       <t xml:space="preserve">通过项目的界面来划分 项目有多少界面 就要划分多少块内容
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
       </rPr>
       <t xml:space="preserve">注意 零碎的小界面也算是界面
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <color rgb="FF000000"/>
-        <sz val="10"/>
       </rPr>
       <t>比如: 暂停, 团队展示, 胜利/失败界面等等</t>
     </r>
   </si>
   <si>
+    <t>每个界面的内容划分通常是三块
+注意: 类似暂停, 菜单, 胜利/失败这种 只有展示内容和直接跳转的  不需要写功能描述部分</t>
+  </si>
+  <si>
+    <t>对功能划分的详细描述
+通常会根据优先级不同划分多行
+展示内容和直接跳转 可以合并列
+功能描述则需要根据功能名, 触发, 反馈来划分单元格</t>
+  </si>
+  <si>
+    <t>相同界面 不同优先级的功能 
+最好是划分不同行来描述</t>
+  </si>
+  <si>
+    <t>如何合并/拆分单元格
+excel的合并/拆分单元格快捷键:
+选中想要合并/拆分的单元格后
+按顺序按下: alt-&gt;h-&gt;m-&gt;c
+或者也可以直接点击开始页的合并选项</t>
+  </si>
+  <si>
+    <t>展示内容
+进入当前界面时 界面会展示哪些内容
+包括但不限于: 按钮, 数据, 游戏地图绘制等等</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+展示内容
+描述进入界面时 界面展示/绘制的内容 </t>
+  </si>
+  <si>
+    <t>核心功能
+必不可少的 程序的主体内容</t>
+  </si>
+  <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <color rgb="FF000000"/>
-        <sz val="10"/>
       </rPr>
       <t xml:space="preserve">直接跳转
 不需要额外判定 直接可以进入其他界面的跳转套装
@@ -307,21 +256,56 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
       </rPr>
       <t>注意: 类似登录功能这种 需要先判断才能跳转的 属于功能描述</t>
     </r>
   </si>
   <si>
+    <t>直接跳转
+描述用户进行某个选择时 会直接进入对应界面</t>
+  </si>
+  <si>
+    <t>非核心功能
+没有不影响主体运行  但会显得程序不够合理 不够完善
+比如: 菜单, 游戏说明等等</t>
+  </si>
+  <si>
+    <t>功能描述
+除了直接跳转外 界面所提供的其他功能
+比如: 碰撞检测, 胜利判断, 排行榜翻页, 登录注册等等</t>
+  </si>
+  <si>
+    <t>功能描述-功能名
+功能的名称: 比如蛇定时移动, 玩家修改方向, 发射子弹, 投掷骰子等等</t>
+  </si>
+  <si>
+    <t>功能描述-触发
+什么情况下会触发这个功能:
+触发通常分为两种情况
+1. 玩家进行了某个操作, 比如按下某个键, 鼠标点击哪里等等
+2. 游戏定时的触发, 比如贪吃蛇的定时移动, 俄罗斯方块的定时下落, 飞机大战的敌机生成/移动等等</t>
+  </si>
+  <si>
+    <t>拓展功能
+程序的拓展功能 没有也不影响程序本身 但可以根据情况添加的功能
+比如: 不同的游戏模式, 设置, 音效音量 排行榜 道具等等</t>
+  </si>
+  <si>
+    <t>如何添加/删除行
+右键点击行号 选择插入/删除
+excel快捷键 点击行号 按ctrl+shift+'+'</t>
+  </si>
+  <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <color rgb="FF000000"/>
-        <sz val="10"/>
       </rPr>
       <t xml:space="preserve">功能描述-反馈
 触发这个功能后, 程序会有哪些反馈
@@ -329,22 +313,32 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10"/>
       </rPr>
       <t>注意: 反馈要写全面, 比如登录成功和登录失败分别是什么情况, 贪吃蛇移动撞墙/蛇身, 吃到食物, 空地移动是什么情况</t>
     </r>
   </si>
   <si>
+    <t>通常会有多个功能 
+根据功能数量来建立多行</t>
+  </si>
+  <si>
+    <t>功能描述-触发</t>
+  </si>
+  <si>
+    <t>功能描述-反馈</t>
+  </si>
+  <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <color theme="10"/>
-        <sz val="10"/>
-        <u/>
       </rPr>
       <t>回到表格</t>
     </r>
@@ -353,218 +347,214 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="300" formatCode="General"/>
-    <numFmt numFmtId="301" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="302" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="303" formatCode="0%"/>
-    <numFmt numFmtId="304" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="305" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <color rgb="FF175CEB"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="等线"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color rgb="FF0563C1"/>
-      <sz val="10"/>
-      <u/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="10"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="true"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="true"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="true"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="true"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="true"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="true"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="true"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="true"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="true"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,9 +562,6 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
@@ -761,7 +748,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -797,20 +784,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -823,14 +797,17 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -849,9 +826,8 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -861,45 +837,10 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1001,276 +942,484 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs>
-    <xf numFmtId="300" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="false" applyFont="false" applyFill="false" applyBorder="false" applyProtection="false"/>
-    <xf numFmtId="300" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="301" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="302" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="303" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="304" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="305" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="15" fillId="2" borderId="15" xfId="0" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="15" fillId="2" borderId="12" xfId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="16" fillId="4" borderId="16" xfId="0" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="17" fillId="5" borderId="17" xfId="0" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="18" fillId="5" borderId="16" xfId="0" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="19" fillId="6" borderId="18" xfId="0" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="21" fillId="2" borderId="20" xfId="0" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="22" fillId="7" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="23" fillId="8" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="24" fillId="9" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="25" fillId="10" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="26" fillId="11" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="26" fillId="12" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="25" fillId="13" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="25" fillId="14" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="26" fillId="15" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="26" fillId="16" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="25" fillId="17" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="25" fillId="18" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="26" fillId="19" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="26" fillId="20" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="25" fillId="21" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="25" fillId="22" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="26" fillId="23" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="26" fillId="24" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="25" fillId="25" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="25" fillId="26" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="26" fillId="27" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="26" fillId="28" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="25" fillId="29" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="25" fillId="30" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="26" fillId="31" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="26" fillId="32" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="25" fillId="33" borderId="12" xfId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="300" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="300" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="300" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="300" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="300" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="300" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="300" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="300" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="300" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="8" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="9" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="5" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="10" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="11" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="8" xfId="0"/>
-    <xf fontId="5" fillId="0" borderId="9" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
-    <cellStyle name="货币" xfId="3" builtinId="4"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+  <cellStyles count="49">
+    <cellStyle name="常規" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="貨幣" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="貨幣[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超鏈接" xfId="6" builtinId="8"/>
+    <cellStyle name="已訪問的超鏈接" xfId="7" builtinId="9"/>
+    <cellStyle name="註釋" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文字" xfId="9" builtinId="11"/>
+    <cellStyle name="標題" xfId="10" builtinId="15"/>
+    <cellStyle name="解釋性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="標題 1" xfId="12" builtinId="16"/>
+    <cellStyle name="標題 2" xfId="13" builtinId="17"/>
+    <cellStyle name="標題 3" xfId="14" builtinId="18"/>
+    <cellStyle name="標題 4" xfId="15" builtinId="19"/>
+    <cellStyle name="輸入" xfId="16" builtinId="20"/>
+    <cellStyle name="輸出" xfId="17" builtinId="21"/>
+    <cellStyle name="計算" xfId="18" builtinId="22"/>
+    <cellStyle name="檢查儲存格" xfId="19" builtinId="23"/>
+    <cellStyle name="鏈接儲存格" xfId="20" builtinId="24"/>
+    <cellStyle name="匯總" xfId="21" builtinId="25"/>
     <cellStyle name="好" xfId="22" builtinId="26"/>
     <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="適中" xfId="24" builtinId="28"/>
+    <cellStyle name="強調文字顏色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 強調文字顏色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 強調文字顏色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 強調文字顏色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="強調文字顏色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 強調文字顏色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 強調文字顏色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 強調文字顏色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="強調文字顏色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 強調文字顏色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 強調文字顏色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 強調文字顏色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="強調文字顏色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 強調文字顏色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 強調文字顏色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 強調文字顏色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="強調文字顏色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 強調文字顏色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 強調文字顏色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 強調文字顏色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="強調文字顏色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 強調文字顏色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 強調文字顏色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 強調文字顏色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1281,16 +1430,20 @@
     <xdr:ext cx="873125" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="1"/>
+        <xdr:cNvPr id="2" name="1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId0" r:link="rId0"/>
+        <a:blip r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11004550" y="7692390"/>
+          <a:ext cx="873125" cy="1143000"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1302,7 +1455,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1322,22 +1475,22 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId0"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15716250" y="405765"/>
-          <a:ext cx="5276850" cy="1327785"/>
+          <a:off x="14287500" y="405765"/>
+          <a:ext cx="4819650" cy="1327785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="false"/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1358,22 +1511,22 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15716250" y="2998470"/>
-          <a:ext cx="3848100" cy="3059430"/>
+          <a:off x="14287500" y="2998470"/>
+          <a:ext cx="3505200" cy="3059430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="false"/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -1496,7 +1649,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1520,9 +1673,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1546,7 +1699,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1581,7 +1734,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1599,7 +1752,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1624,7 +1777,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1634,343 +1787,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="T24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" topLeftCell="A12" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="true"/>
-    <col min="2" max="3" width="18" customWidth="true"/>
-    <col min="4" max="4" width="77" customWidth="true"/>
-    <col min="5" max="5" width="34" customWidth="true"/>
-    <col min="6" max="6" width="27" customWidth="true"/>
-    <col min="7" max="7" width="24" customWidth="true"/>
-    <col min="8" max="20" width="10" customWidth="true"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="77" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="20" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.95" customHeight="true">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="31.95" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s"/>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="31.95" customHeight="true">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" ht="31.95" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s"/>
-    </row>
-    <row r="3" spans="1:6" ht="79.95" customHeight="true">
-      <c r="A3" s="4" t="s"/>
-      <c r="B3" s="4" t="s">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" ht="79.95" customHeight="1" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s"/>
-      <c r="E3" s="4" t="s"/>
-      <c r="F3" s="4" t="s"/>
-    </row>
-    <row r="4" spans="1:6" ht="31.95" customHeight="true">
-      <c r="A4" s="4" t="s"/>
-      <c r="B4" s="4" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" ht="31.95" customHeight="1" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s"/>
-    </row>
-    <row r="5" spans="1:6" ht="31.95" customHeight="true">
-      <c r="A5" s="4" t="s"/>
-      <c r="B5" s="4" t="s"/>
-      <c r="C5" s="4" t="s"/>
-      <c r="D5" s="4" t="s">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" ht="31.95" customHeight="1" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s"/>
-      <c r="F5" s="4" t="s"/>
-    </row>
-    <row r="6" spans="1:6" ht="31.95" customHeight="true">
-      <c r="A6" s="4" t="s"/>
-      <c r="B6" s="4" t="s"/>
-      <c r="C6" s="4" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" ht="31.95" customHeight="1" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s"/>
-    </row>
-    <row r="7" spans="1:6" ht="31.95" customHeight="true">
-      <c r="A7" s="4" t="s"/>
-      <c r="B7" s="4" t="s"/>
-      <c r="C7" s="4" t="s"/>
-      <c r="D7" s="4" t="s">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" ht="31.95" customHeight="1" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4" t="s"/>
-      <c r="F7" s="4" t="s"/>
-    </row>
-    <row r="8" spans="1:6" ht="64.05" customHeight="true">
-      <c r="A8" s="4" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" ht="64.05" customHeight="1" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="4" t="s"/>
-    </row>
-    <row r="9" spans="1:6" ht="64.05" customHeight="true">
-      <c r="A9" s="4" t="s"/>
-      <c r="B9" s="4" t="s">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" ht="64.05" customHeight="1" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="s"/>
-      <c r="E9" s="4" t="s"/>
-      <c r="F9" s="4" t="s"/>
-    </row>
-    <row r="10" spans="1:6" ht="31.95" customHeight="true">
-      <c r="A10" s="4" t="s"/>
-      <c r="B10" s="12" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" ht="31.95" customHeight="1" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="4" t="s"/>
-    </row>
-    <row r="11" spans="1:6" ht="84" customHeight="true">
-      <c r="A11" s="4" t="s"/>
-      <c r="B11" s="12" t="s"/>
-      <c r="C11" s="16" t="s"/>
-      <c r="D11" s="14" t="s">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" ht="84" customHeight="1" spans="1:6">
+      <c r="A11" s="1"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="4" t="s"/>
-      <c r="F11" s="4" t="s"/>
-    </row>
-    <row r="12" spans="1:6" ht="90" customHeight="true">
-      <c r="A12" s="4" t="s"/>
-      <c r="B12" s="12" t="s"/>
-      <c r="C12" s="16" t="s"/>
-      <c r="D12" s="14" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" ht="90" customHeight="1" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="4" t="s"/>
-    </row>
-    <row r="13" spans="1:6" ht="90" customHeight="true">
-      <c r="A13" s="11" t="s"/>
-      <c r="B13" s="13" t="s"/>
-      <c r="C13" s="16" t="s"/>
-      <c r="D13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" ht="90" customHeight="1" spans="1:6">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="4" t="s"/>
-    </row>
-    <row r="14" spans="1:6" ht="90" customHeight="true">
-      <c r="A14" s="11" t="s"/>
-      <c r="B14" s="19" t="s"/>
-      <c r="C14" s="17" t="s"/>
-      <c r="D14" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="22" t="s">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" ht="90" customHeight="1" spans="1:6">
+      <c r="A14" s="12"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="4" t="s"/>
-    </row>
-    <row r="15" spans="1:6" ht="52.05" customHeight="true">
-      <c r="A15" s="4" t="s"/>
-      <c r="B15" s="4" t="s"/>
-      <c r="C15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="F14" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="15" ht="52.05" customHeight="1" spans="1:6">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="4" t="s"/>
-    </row>
-    <row r="16" spans="1:6" ht="46.95" customHeight="true">
-      <c r="A16" s="4" t="s"/>
-      <c r="B16" s="4" t="s"/>
-      <c r="C16" s="4" t="s"/>
-      <c r="D16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="4" t="s"/>
-      <c r="F16" s="4" t="s"/>
-    </row>
-    <row r="17" spans="1:6" ht="60" customHeight="true">
-      <c r="A17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" ht="46.95" customHeight="1" spans="1:6">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" ht="60" customHeight="1" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="4" t="s"/>
-      <c r="E17" s="4" t="s">
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="4" t="s"/>
-    </row>
-    <row r="18" spans="1:6" ht="31.95" customHeight="true">
-      <c r="A18" s="4" t="s"/>
-      <c r="B18" s="4" t="s">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" ht="31.95" customHeight="1" spans="1:6">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="4" t="s"/>
-      <c r="E18" s="4" t="s">
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="4" t="s"/>
-    </row>
-    <row r="19" spans="1:6" ht="31.95" customHeight="true">
-      <c r="A19" s="4" t="s"/>
-      <c r="B19" s="4" t="s"/>
-      <c r="C19" s="4" t="s"/>
-      <c r="D19" s="4" t="s"/>
-      <c r="E19" s="4" t="s"/>
-      <c r="F19" s="4" t="s"/>
-    </row>
-    <row r="20" spans="1:6" ht="31.95" customHeight="true">
-      <c r="A20" s="4" t="s"/>
-      <c r="B20" s="4" t="s"/>
-      <c r="C20" s="4" t="s"/>
-      <c r="D20" s="4" t="s"/>
-      <c r="E20" s="4" t="s"/>
-      <c r="F20" s="4" t="s"/>
-    </row>
-    <row r="21" spans="1:6" ht="31.95" customHeight="true">
-      <c r="A21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" ht="31.95" customHeight="1" spans="1:6">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" ht="31.95" customHeight="1" spans="1:6">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" ht="31.95" customHeight="1" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="4" t="s"/>
-      <c r="E21" s="4" t="s">
+      <c r="C21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="31.95" customHeight="true">
-      <c r="A22" s="4" t="s"/>
-      <c r="B22" s="4" t="s">
+      <c r="F21" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" ht="31.95" customHeight="1" spans="1:6">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="4" t="s"/>
-      <c r="E22" s="4" t="s">
+      <c r="C22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="4" t="s"/>
-    </row>
-    <row r="23" spans="1:6" ht="123" customHeight="true">
-      <c r="A23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" ht="123" customHeight="1" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="4" t="s"/>
-      <c r="E23" s="4" t="s">
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="4" t="s"/>
-    </row>
-    <row r="24" spans="1:6" ht="31.95" customHeight="true">
-      <c r="A24" s="4" t="s"/>
-      <c r="B24" s="4" t="s">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" ht="31.95" customHeight="1" spans="1:6">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="4" t="s"/>
-      <c r="E24" s="4" t="s"/>
-      <c r="F24" s="4" t="s"/>
+      <c r="C24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -1986,12 +2143,16 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A16"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B10:B16"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C10:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="E2:E3"/>
@@ -2001,184 +2162,182 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="C10:C14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G1" location="'格式说明'!A1" display="格式说明"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <drawing r:id="rId0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="T20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="true"/>
-    <col min="2" max="2" width="58" customWidth="true"/>
-    <col min="3" max="3" width="28" customWidth="true"/>
-    <col min="4" max="4" width="40" customWidth="true"/>
-    <col min="5" max="5" width="27" customWidth="true"/>
-    <col min="6" max="6" width="31" customWidth="true"/>
-    <col min="7" max="20" width="9" customWidth="true"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="58" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="20" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.95" customHeight="true">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="31.95" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s"/>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="91.05" customHeight="true">
-      <c r="A2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="8" t="s"/>
-      <c r="E2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="7" t="s">
+    </row>
+    <row r="2" ht="91.05" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="46.05" customHeight="true">
-      <c r="A3" s="7" t="s"/>
-      <c r="B3" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="9" t="s"/>
-      <c r="E3" s="7" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="9" t="s"/>
-    </row>
-    <row r="4" spans="1:6" ht="67.05" customHeight="true">
-      <c r="A4" s="7" t="s"/>
-      <c r="B4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="9" t="s"/>
-      <c r="E4" s="7" t="s">
+    </row>
+    <row r="3" ht="46.05" customHeight="1" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="9" t="s"/>
-    </row>
-    <row r="5" spans="1:6" ht="123" customHeight="true">
-      <c r="A5" s="7" t="s"/>
-      <c r="B5" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" ht="67.05" customHeight="1" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="79.05" customHeight="true">
-      <c r="A6" s="7" t="s"/>
-      <c r="B6" s="7" t="s"/>
-      <c r="C6" s="9" t="s"/>
-      <c r="D6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="9" t="s"/>
-      <c r="F6" s="9" t="s"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.05" customHeight="true">
-      <c r="A7" s="7" t="s"/>
-      <c r="B7" s="7" t="s"/>
-      <c r="C7" s="7" t="s">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" ht="123" customHeight="1" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="9" t="s"/>
-      <c r="F7" s="9" t="s"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.05" customHeight="true">
-      <c r="A8" s="7" t="s"/>
-      <c r="B8" s="7" t="s"/>
-      <c r="C8" s="9" t="s"/>
-      <c r="D8" s="9" t="s">
+      <c r="D5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="9" t="s"/>
-      <c r="F8" s="9" t="s"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.05" customHeight="true">
-      <c r="A9" s="7" t="s"/>
-      <c r="B9" s="7" t="s"/>
-      <c r="C9" s="9" t="s"/>
-      <c r="D9" s="9" t="s"/>
-      <c r="E9" s="9" t="s"/>
-      <c r="F9" s="9" t="s"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.05" customHeight="true">
-      <c r="A10" s="7" t="s"/>
-      <c r="B10" s="7" t="s"/>
-      <c r="C10" s="9" t="s"/>
-      <c r="D10" s="9" t="s"/>
-      <c r="E10" s="9" t="s"/>
-      <c r="F10" s="9" t="s"/>
-    </row>
-    <row r="11" spans="1:1" ht="49.95" customHeight="true">
-      <c r="A11" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="16.05" customHeight="true"/>
-    <row r="13" spans="1:26" ht="16.05" customHeight="true"/>
-    <row r="14" spans="1:26" ht="16.05" customHeight="true"/>
-    <row r="15" spans="1:26" ht="16.05" customHeight="true"/>
-    <row r="16" spans="1:26" ht="16.05" customHeight="true"/>
-    <row r="17" spans="1:26" ht="16.05" customHeight="true"/>
-    <row r="18" spans="1:26" ht="16.05" customHeight="true"/>
-    <row r="19" spans="1:26" ht="16.05" customHeight="true"/>
-    <row r="20" spans="1:26" ht="16.05" customHeight="true"/>
+      <c r="E5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" ht="79.05" customHeight="1" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" ht="16.05" customHeight="1" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" ht="16.05" customHeight="1" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" ht="16.05" customHeight="1" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" ht="16.05" customHeight="1" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" ht="49.95" customHeight="1" spans="1:1">
+      <c r="A11" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" ht="16.05" customHeight="1"/>
+    <row r="13" ht="16.05" customHeight="1"/>
+    <row r="14" ht="16.05" customHeight="1"/>
+    <row r="15" ht="16.05" customHeight="1"/>
+    <row r="16" ht="16.05" customHeight="1"/>
+    <row r="17" ht="16.05" customHeight="1"/>
+    <row r="18" ht="16.05" customHeight="1"/>
+    <row r="19" ht="16.05" customHeight="1"/>
+    <row r="20" ht="16.05" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C1:D1"/>
@@ -2195,6 +2354,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <drawing r:id="rId0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>